--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Inhba-Acvr2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Acvr2b</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H2">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I2">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J2">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.2668186895293</v>
+        <v>1.455462333333333</v>
       </c>
       <c r="N2">
-        <v>1.2668186895293</v>
+        <v>4.366387</v>
       </c>
       <c r="O2">
-        <v>0.3343313307685932</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="P2">
-        <v>0.3343313307685932</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="Q2">
-        <v>6.926759978931275</v>
+        <v>0.07343583718244444</v>
       </c>
       <c r="R2">
-        <v>6.926759978931275</v>
+        <v>0.6609225346419999</v>
       </c>
       <c r="S2">
-        <v>0.1384373158329701</v>
+        <v>0.001009304028692016</v>
       </c>
       <c r="T2">
-        <v>0.1384373158329701</v>
+        <v>0.001009304028692016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H3">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I3">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J3">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.529239555083826</v>
+        <v>0.1041576666666667</v>
       </c>
       <c r="N3">
-        <v>0.529239555083826</v>
+        <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.1396737877401368</v>
+        <v>0.02139798360848153</v>
       </c>
       <c r="P3">
-        <v>0.1396737877401368</v>
+        <v>0.02139798360848154</v>
       </c>
       <c r="Q3">
-        <v>2.893796404901596</v>
+        <v>0.005255309790888889</v>
       </c>
       <c r="R3">
-        <v>2.893796404901596</v>
+        <v>0.047297788118</v>
       </c>
       <c r="S3">
-        <v>0.05783503515066008</v>
+        <v>7.222911248074904E-05</v>
       </c>
       <c r="T3">
-        <v>0.05783503515066008</v>
+        <v>7.222911248074907E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H4">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I4">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J4">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.895745822132148</v>
+        <v>0.7055843333333334</v>
       </c>
       <c r="N4">
-        <v>0.895745822132148</v>
+        <v>2.116753</v>
       </c>
       <c r="O4">
-        <v>0.2363999641141402</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="P4">
-        <v>0.2363999641141402</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="Q4">
-        <v>4.897793475359324</v>
+        <v>0.03560049273311111</v>
       </c>
       <c r="R4">
-        <v>4.897793475359324</v>
+        <v>0.320404434598</v>
       </c>
       <c r="S4">
-        <v>0.09788665758526731</v>
+        <v>0.0004892940847080003</v>
       </c>
       <c r="T4">
-        <v>0.09788665758526731</v>
+        <v>0.0004892940847080005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.46783848089973</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H5">
-        <v>5.46783848089973</v>
+        <v>0.151366</v>
       </c>
       <c r="I5">
-        <v>0.4140722184627956</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J5">
-        <v>0.4140722184627956</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09730743117212</v>
+        <v>0.9476490000000001</v>
       </c>
       <c r="N5">
-        <v>1.09730743117212</v>
+        <v>2.842947</v>
       </c>
       <c r="O5">
-        <v>0.2895949173771297</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="P5">
-        <v>0.2895949173771297</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="Q5">
-        <v>5.99989979754015</v>
+        <v>0.047813946178</v>
       </c>
       <c r="R5">
-        <v>5.99989979754015</v>
+        <v>0.430325515602</v>
       </c>
       <c r="S5">
-        <v>0.1199132098938981</v>
+        <v>0.000657156101934593</v>
       </c>
       <c r="T5">
-        <v>0.1199132098938981</v>
+        <v>0.000657156101934593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>6.92415863640736</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H6">
-        <v>6.92415863640736</v>
+        <v>0.151366</v>
       </c>
       <c r="I6">
-        <v>0.5243574289147146</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J6">
-        <v>0.5243574289147146</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.2668186895293</v>
+        <v>0.245191</v>
       </c>
       <c r="N6">
-        <v>1.2668186895293</v>
+        <v>0.735573</v>
       </c>
       <c r="O6">
-        <v>0.3343313307685932</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="P6">
-        <v>0.3343313307685932</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="Q6">
-        <v>8.771653569866558</v>
+        <v>0.01237119363533333</v>
       </c>
       <c r="R6">
-        <v>8.771653569866558</v>
+        <v>0.111340742718</v>
       </c>
       <c r="S6">
-        <v>0.1753091170074546</v>
+        <v>0.0001700300024475779</v>
       </c>
       <c r="T6">
-        <v>0.1753091170074546</v>
+        <v>0.000170030002447578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>6.92415863640736</v>
+        <v>0.05045533333333333</v>
       </c>
       <c r="H7">
-        <v>6.92415863640736</v>
+        <v>0.151366</v>
       </c>
       <c r="I7">
-        <v>0.5243574289147146</v>
+        <v>0.0033755102257448</v>
       </c>
       <c r="J7">
-        <v>0.5243574289147146</v>
+        <v>0.003375510225744801</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.529239555083826</v>
+        <v>1.409595</v>
       </c>
       <c r="N7">
-        <v>0.529239555083826</v>
+        <v>4.228785</v>
       </c>
       <c r="O7">
-        <v>0.1396737877401368</v>
+        <v>0.2895849309021662</v>
       </c>
       <c r="P7">
-        <v>0.1396737877401368</v>
+        <v>0.2895849309021662</v>
       </c>
       <c r="Q7">
-        <v>3.664538636062063</v>
+        <v>0.07112158559000001</v>
       </c>
       <c r="R7">
-        <v>3.664538636062063</v>
+        <v>0.64009427031</v>
       </c>
       <c r="S7">
-        <v>0.07323898822619773</v>
+        <v>0.0009774968954818636</v>
       </c>
       <c r="T7">
-        <v>0.07323898822619773</v>
+        <v>0.0009774968954818638</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H8">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J8">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.895745822132148</v>
+        <v>1.455462333333333</v>
       </c>
       <c r="N8">
-        <v>0.895745822132148</v>
+        <v>4.366387</v>
       </c>
       <c r="O8">
-        <v>0.2363999641141402</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="P8">
-        <v>0.2363999641141402</v>
+        <v>0.2990078421312781</v>
       </c>
       <c r="Q8">
-        <v>6.202286170342123</v>
+        <v>8.407969629614554</v>
       </c>
       <c r="R8">
-        <v>6.202286170342123</v>
+        <v>75.67172666653099</v>
       </c>
       <c r="S8">
-        <v>0.1239580773784214</v>
+        <v>0.1155593501195735</v>
       </c>
       <c r="T8">
-        <v>0.1239580773784214</v>
+        <v>0.1155593501195735</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,309 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.92415863640736</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H9">
-        <v>6.92415863640736</v>
+        <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J9">
-        <v>0.5243574289147146</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.09730743117212</v>
+        <v>0.1041576666666667</v>
       </c>
       <c r="N9">
-        <v>1.09730743117212</v>
+        <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.2895949173771297</v>
+        <v>0.02139798360848153</v>
       </c>
       <c r="P9">
-        <v>0.2895949173771297</v>
+        <v>0.02139798360848154</v>
       </c>
       <c r="Q9">
-        <v>7.597930726344409</v>
+        <v>0.6017019320721111</v>
       </c>
       <c r="R9">
-        <v>7.597930726344409</v>
+        <v>5.415317388649</v>
       </c>
       <c r="S9">
-        <v>0.1518512463026409</v>
+        <v>0.008269806778444853</v>
       </c>
       <c r="T9">
-        <v>0.1518512463026409</v>
+        <v>0.008269806778444855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.813038712429493</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H10">
-        <v>0.813038712429493</v>
+        <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J10">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.2668186895293</v>
+        <v>0.7055843333333334</v>
       </c>
       <c r="N10">
-        <v>1.2668186895293</v>
+        <v>2.116753</v>
       </c>
       <c r="O10">
-        <v>0.3343313307685932</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="P10">
-        <v>0.3343313307685932</v>
+        <v>0.1449541112262631</v>
       </c>
       <c r="Q10">
-        <v>1.02997263621652</v>
+        <v>4.076046153809889</v>
       </c>
       <c r="R10">
-        <v>1.02997263621652</v>
+        <v>36.684415384289</v>
       </c>
       <c r="S10">
-        <v>0.02058489792816854</v>
+        <v>0.05602128282345507</v>
       </c>
       <c r="T10">
-        <v>0.02058489792816854</v>
+        <v>0.05602128282345509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.813038712429493</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H11">
-        <v>0.813038712429493</v>
+        <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J11">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.529239555083826</v>
+        <v>0.9476490000000001</v>
       </c>
       <c r="N11">
-        <v>0.529239555083826</v>
+        <v>2.842947</v>
       </c>
       <c r="O11">
-        <v>0.1396737877401368</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="P11">
-        <v>0.1396737877401368</v>
+        <v>0.1946834872317985</v>
       </c>
       <c r="Q11">
-        <v>0.4302922464321117</v>
+        <v>5.474414437979</v>
       </c>
       <c r="R11">
-        <v>0.4302922464321117</v>
+        <v>49.269729941811</v>
       </c>
       <c r="S11">
-        <v>0.00859976436327901</v>
+        <v>0.07524049236689077</v>
       </c>
       <c r="T11">
-        <v>0.00859976436327901</v>
+        <v>0.07524049236689079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.813038712429493</v>
+        <v>5.776837666666666</v>
       </c>
       <c r="H12">
-        <v>0.813038712429493</v>
+        <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617668</v>
       </c>
       <c r="J12">
-        <v>0.06157035262248975</v>
+        <v>0.3864759843617669</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.895745822132148</v>
+        <v>0.245191</v>
       </c>
       <c r="N12">
-        <v>0.895745822132148</v>
+        <v>0.735573</v>
       </c>
       <c r="O12">
-        <v>0.2363999641141402</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="P12">
-        <v>0.2363999641141402</v>
+        <v>0.05037164490001245</v>
       </c>
       <c r="Q12">
-        <v>0.7282760298904193</v>
+        <v>1.416428604327667</v>
       </c>
       <c r="R12">
-        <v>0.7282760298904193</v>
+        <v>12.747857438949</v>
       </c>
       <c r="S12">
-        <v>0.01455522915045154</v>
+        <v>0.01946743104665368</v>
       </c>
       <c r="T12">
-        <v>0.01455522915045154</v>
+        <v>0.01946743104665368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.776837666666666</v>
+      </c>
+      <c r="H13">
+        <v>17.330513</v>
+      </c>
+      <c r="I13">
+        <v>0.3864759843617668</v>
+      </c>
+      <c r="J13">
+        <v>0.3864759843617669</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.409595</v>
+      </c>
+      <c r="N13">
+        <v>4.228785</v>
+      </c>
+      <c r="O13">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P13">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q13">
+        <v>8.143001490745</v>
+      </c>
+      <c r="R13">
+        <v>73.28701341670501</v>
+      </c>
+      <c r="S13">
+        <v>0.1119176212267489</v>
+      </c>
+      <c r="T13">
+        <v>0.1119176212267489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.88887</v>
+      </c>
+      <c r="I14">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J14">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.455462333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.366387</v>
+      </c>
+      <c r="O14">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="P14">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="Q14">
+        <v>0.9163930458544444</v>
+      </c>
+      <c r="R14">
+        <v>8.247537412689999</v>
+      </c>
+      <c r="S14">
+        <v>0.01259492951307089</v>
+      </c>
+      <c r="T14">
+        <v>0.01259492951307089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.88887</v>
+      </c>
+      <c r="I15">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J15">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.312473</v>
+      </c>
+      <c r="O15">
+        <v>0.02139798360848153</v>
+      </c>
+      <c r="P15">
+        <v>0.02139798360848154</v>
+      </c>
+      <c r="Q15">
+        <v>0.06558009727888889</v>
+      </c>
+      <c r="R15">
+        <v>0.59022087551</v>
+      </c>
+      <c r="S15">
+        <v>0.0009013345380832712</v>
+      </c>
+      <c r="T15">
+        <v>0.0009013345380832716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.88887</v>
+      </c>
+      <c r="I16">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J16">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7055843333333334</v>
+      </c>
+      <c r="N16">
+        <v>2.116753</v>
+      </c>
+      <c r="O16">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="P16">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="Q16">
+        <v>0.4442523599011111</v>
+      </c>
+      <c r="R16">
+        <v>3.99827123911</v>
+      </c>
+      <c r="S16">
+        <v>0.006105815822459473</v>
+      </c>
+      <c r="T16">
+        <v>0.006105815822459474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.88887</v>
+      </c>
+      <c r="I17">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J17">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9476490000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.842947</v>
+      </c>
+      <c r="O17">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="P17">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="Q17">
+        <v>0.59666192221</v>
+      </c>
+      <c r="R17">
+        <v>5.36995729989</v>
+      </c>
+      <c r="S17">
+        <v>0.008200536753704231</v>
+      </c>
+      <c r="T17">
+        <v>0.008200536753704232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.88887</v>
+      </c>
+      <c r="I18">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J18">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.245191</v>
+      </c>
+      <c r="N18">
+        <v>0.735573</v>
+      </c>
+      <c r="O18">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P18">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q18">
+        <v>0.1543779747233333</v>
+      </c>
+      <c r="R18">
+        <v>1.38940177251</v>
+      </c>
+      <c r="S18">
+        <v>0.002121774841927226</v>
+      </c>
+      <c r="T18">
+        <v>0.002121774841927227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="H13">
-        <v>0.813038712429493</v>
-      </c>
-      <c r="I13">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="J13">
-        <v>0.06157035262248975</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.09730743117212</v>
-      </c>
-      <c r="N13">
-        <v>1.09730743117212</v>
-      </c>
-      <c r="O13">
-        <v>0.2895949173771297</v>
-      </c>
-      <c r="P13">
-        <v>0.2895949173771297</v>
-      </c>
-      <c r="Q13">
-        <v>0.892153420979495</v>
-      </c>
-      <c r="R13">
-        <v>0.892153420979495</v>
-      </c>
-      <c r="S13">
-        <v>0.01783046118059066</v>
-      </c>
-      <c r="T13">
-        <v>0.01783046118059066</v>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.6296233333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.88887</v>
+      </c>
+      <c r="I19">
+        <v>0.04212240529645086</v>
+      </c>
+      <c r="J19">
+        <v>0.04212240529645087</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.409595</v>
+      </c>
+      <c r="N19">
+        <v>4.228785</v>
+      </c>
+      <c r="O19">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P19">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q19">
+        <v>0.8875139025500001</v>
+      </c>
+      <c r="R19">
+        <v>7.987625122950001</v>
+      </c>
+      <c r="S19">
+        <v>0.01219801382720576</v>
+      </c>
+      <c r="T19">
+        <v>0.01219801382720577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.352184</v>
+      </c>
+      <c r="H20">
+        <v>1.056552</v>
+      </c>
+      <c r="I20">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J20">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.455462333333333</v>
+      </c>
+      <c r="N20">
+        <v>4.366387</v>
+      </c>
+      <c r="O20">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="P20">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="Q20">
+        <v>0.5125905464026667</v>
+      </c>
+      <c r="R20">
+        <v>4.613314917623999</v>
+      </c>
+      <c r="S20">
+        <v>0.007045057609520017</v>
+      </c>
+      <c r="T20">
+        <v>0.007045057609520019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.352184</v>
+      </c>
+      <c r="H21">
+        <v>1.056552</v>
+      </c>
+      <c r="I21">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J21">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.312473</v>
+      </c>
+      <c r="O21">
+        <v>0.02139798360848153</v>
+      </c>
+      <c r="P21">
+        <v>0.02139798360848154</v>
+      </c>
+      <c r="Q21">
+        <v>0.03668266367733333</v>
+      </c>
+      <c r="R21">
+        <v>0.330143973096</v>
+      </c>
+      <c r="S21">
+        <v>0.0005041674699057937</v>
+      </c>
+      <c r="T21">
+        <v>0.0005041674699057938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.352184</v>
+      </c>
+      <c r="H22">
+        <v>1.056552</v>
+      </c>
+      <c r="I22">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J22">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7055843333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.116753</v>
+      </c>
+      <c r="O22">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="P22">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="Q22">
+        <v>0.2484955128506667</v>
+      </c>
+      <c r="R22">
+        <v>2.236459615656</v>
+      </c>
+      <c r="S22">
+        <v>0.00341532869856115</v>
+      </c>
+      <c r="T22">
+        <v>0.003415328698561152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.352184</v>
+      </c>
+      <c r="H23">
+        <v>1.056552</v>
+      </c>
+      <c r="I23">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J23">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9476490000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.842947</v>
+      </c>
+      <c r="O23">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="P23">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="Q23">
+        <v>0.333746815416</v>
+      </c>
+      <c r="R23">
+        <v>3.003721338744</v>
+      </c>
+      <c r="S23">
+        <v>0.004587024786353594</v>
+      </c>
+      <c r="T23">
+        <v>0.004587024786353595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.352184</v>
+      </c>
+      <c r="H24">
+        <v>1.056552</v>
+      </c>
+      <c r="I24">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J24">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.245191</v>
+      </c>
+      <c r="N24">
+        <v>0.735573</v>
+      </c>
+      <c r="O24">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P24">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q24">
+        <v>0.086352347144</v>
+      </c>
+      <c r="R24">
+        <v>0.777171124296</v>
+      </c>
+      <c r="S24">
+        <v>0.001186828872705848</v>
+      </c>
+      <c r="T24">
+        <v>0.001186828872705848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.352184</v>
+      </c>
+      <c r="H25">
+        <v>1.056552</v>
+      </c>
+      <c r="I25">
+        <v>0.0235614476172398</v>
+      </c>
+      <c r="J25">
+        <v>0.02356144761723981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.409595</v>
+      </c>
+      <c r="N25">
+        <v>4.228785</v>
+      </c>
+      <c r="O25">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P25">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q25">
+        <v>0.4964368054800001</v>
+      </c>
+      <c r="R25">
+        <v>4.46793124932</v>
+      </c>
+      <c r="S25">
+        <v>0.006823040180193398</v>
+      </c>
+      <c r="T25">
+        <v>0.006823040180193399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H26">
+        <v>21.947639</v>
+      </c>
+      <c r="I26">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J26">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.455462333333333</v>
+      </c>
+      <c r="N26">
+        <v>4.366387</v>
+      </c>
+      <c r="O26">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="P26">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="Q26">
+        <v>10.64798729003255</v>
+      </c>
+      <c r="R26">
+        <v>95.83188561029299</v>
+      </c>
+      <c r="S26">
+        <v>0.1463462102650398</v>
+      </c>
+      <c r="T26">
+        <v>0.1463462102650398</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H27">
+        <v>21.947639</v>
+      </c>
+      <c r="I27">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J27">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.312473</v>
+      </c>
+      <c r="O27">
+        <v>0.02139798360848153</v>
+      </c>
+      <c r="P27">
+        <v>0.02139798360848154</v>
+      </c>
+      <c r="Q27">
+        <v>0.7620049556941111</v>
+      </c>
+      <c r="R27">
+        <v>6.858044601246999</v>
+      </c>
+      <c r="S27">
+        <v>0.01047301564431824</v>
+      </c>
+      <c r="T27">
+        <v>0.01047301564431824</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H28">
+        <v>21.947639</v>
+      </c>
+      <c r="I28">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J28">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.7055843333333334</v>
+      </c>
+      <c r="N28">
+        <v>2.116753</v>
+      </c>
+      <c r="O28">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="P28">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="Q28">
+        <v>5.16197007735189</v>
+      </c>
+      <c r="R28">
+        <v>46.457730696167</v>
+      </c>
+      <c r="S28">
+        <v>0.07094624906522344</v>
+      </c>
+      <c r="T28">
+        <v>0.07094624906522347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H29">
+        <v>21.947639</v>
+      </c>
+      <c r="I29">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J29">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.9476490000000001</v>
+      </c>
+      <c r="N29">
+        <v>2.842947</v>
+      </c>
+      <c r="O29">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="P29">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="Q29">
+        <v>6.932886050237</v>
+      </c>
+      <c r="R29">
+        <v>62.395974452133</v>
+      </c>
+      <c r="S29">
+        <v>0.09528576359227071</v>
+      </c>
+      <c r="T29">
+        <v>0.09528576359227073</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H30">
+        <v>21.947639</v>
+      </c>
+      <c r="I30">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J30">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.245191</v>
+      </c>
+      <c r="N30">
+        <v>0.735573</v>
+      </c>
+      <c r="O30">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P30">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q30">
+        <v>1.793787851349667</v>
+      </c>
+      <c r="R30">
+        <v>16.144090662147</v>
+      </c>
+      <c r="S30">
+        <v>0.02465386621096255</v>
+      </c>
+      <c r="T30">
+        <v>0.02465386621096255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.315879666666667</v>
+      </c>
+      <c r="H31">
+        <v>21.947639</v>
+      </c>
+      <c r="I31">
+        <v>0.4894393712951084</v>
+      </c>
+      <c r="J31">
+        <v>0.4894393712951085</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.409595</v>
+      </c>
+      <c r="N31">
+        <v>4.228785</v>
+      </c>
+      <c r="O31">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P31">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q31">
+        <v>10.312427398735</v>
+      </c>
+      <c r="R31">
+        <v>92.811846588615</v>
+      </c>
+      <c r="S31">
+        <v>0.1417342665172937</v>
+      </c>
+      <c r="T31">
+        <v>0.1417342665172937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H32">
+        <v>2.467466</v>
+      </c>
+      <c r="I32">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J32">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.455462333333333</v>
+      </c>
+      <c r="N32">
+        <v>4.366387</v>
+      </c>
+      <c r="O32">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="P32">
+        <v>0.2990078421312781</v>
+      </c>
+      <c r="Q32">
+        <v>1.197101273926889</v>
+      </c>
+      <c r="R32">
+        <v>10.773911465342</v>
+      </c>
+      <c r="S32">
+        <v>0.01645299059538188</v>
+      </c>
+      <c r="T32">
+        <v>0.01645299059538189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H33">
+        <v>2.467466</v>
+      </c>
+      <c r="I33">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J33">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1041576666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.312473</v>
+      </c>
+      <c r="O33">
+        <v>0.02139798360848153</v>
+      </c>
+      <c r="P33">
+        <v>0.02139798360848154</v>
+      </c>
+      <c r="Q33">
+        <v>0.08566850037977777</v>
+      </c>
+      <c r="R33">
+        <v>0.771016503418</v>
+      </c>
+      <c r="S33">
+        <v>0.001177430065248629</v>
+      </c>
+      <c r="T33">
+        <v>0.001177430065248629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H34">
+        <v>2.467466</v>
+      </c>
+      <c r="I34">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J34">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.7055843333333334</v>
+      </c>
+      <c r="N34">
+        <v>2.116753</v>
+      </c>
+      <c r="O34">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="P34">
+        <v>0.1449541112262631</v>
+      </c>
+      <c r="Q34">
+        <v>0.5803351175442223</v>
+      </c>
+      <c r="R34">
+        <v>5.223016057898</v>
+      </c>
+      <c r="S34">
+        <v>0.00797614073185597</v>
+      </c>
+      <c r="T34">
+        <v>0.007976140731855971</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H35">
+        <v>2.467466</v>
+      </c>
+      <c r="I35">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J35">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.9476490000000001</v>
+      </c>
+      <c r="N35">
+        <v>2.842947</v>
+      </c>
+      <c r="O35">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="P35">
+        <v>0.1946834872317985</v>
+      </c>
+      <c r="Q35">
+        <v>0.779430562478</v>
+      </c>
+      <c r="R35">
+        <v>7.014875062302</v>
+      </c>
+      <c r="S35">
+        <v>0.01071251363064455</v>
+      </c>
+      <c r="T35">
+        <v>0.01071251363064455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H36">
+        <v>2.467466</v>
+      </c>
+      <c r="I36">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J36">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.245191</v>
+      </c>
+      <c r="N36">
+        <v>0.735573</v>
+      </c>
+      <c r="O36">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="P36">
+        <v>0.05037164490001245</v>
+      </c>
+      <c r="Q36">
+        <v>0.2016668186686667</v>
+      </c>
+      <c r="R36">
+        <v>1.815001368018</v>
+      </c>
+      <c r="S36">
+        <v>0.002771713925315562</v>
+      </c>
+      <c r="T36">
+        <v>0.002771713925315562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.8224886666666666</v>
+      </c>
+      <c r="H37">
+        <v>2.467466</v>
+      </c>
+      <c r="I37">
+        <v>0.0550252812036892</v>
+      </c>
+      <c r="J37">
+        <v>0.05502528120368921</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.409595</v>
+      </c>
+      <c r="N37">
+        <v>4.228785</v>
+      </c>
+      <c r="O37">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="P37">
+        <v>0.2895849309021662</v>
+      </c>
+      <c r="Q37">
+        <v>1.15937591209</v>
+      </c>
+      <c r="R37">
+        <v>10.43438320881</v>
+      </c>
+      <c r="S37">
+        <v>0.0159344922552426</v>
+      </c>
+      <c r="T37">
+        <v>0.01593449225524261</v>
       </c>
     </row>
   </sheetData>
